--- a/final/l.p.g.(_11_kg_cylender.).xlsx
+++ b/final/l.p.g.(_11_kg_cylender.).xlsx
@@ -1548,6 +1548,60 @@
       <c r="A22" s="1" t="n">
         <v>42522</v>
       </c>
+      <c r="B22" t="n">
+        <v>1074</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1054</v>
+      </c>
+      <c r="D22" t="n">
+        <v>803</v>
+      </c>
+      <c r="E22" t="n">
+        <v>880</v>
+      </c>
+      <c r="F22" t="n">
+        <v>825</v>
+      </c>
+      <c r="G22" t="n">
+        <v>890</v>
+      </c>
+      <c r="H22" t="n">
+        <v>900</v>
+      </c>
+      <c r="I22" t="n">
+        <v>880</v>
+      </c>
+      <c r="J22" t="n">
+        <v>880</v>
+      </c>
+      <c r="K22" t="n">
+        <v>880</v>
+      </c>
+      <c r="L22" t="n">
+        <v>880</v>
+      </c>
+      <c r="M22" t="n">
+        <v>990</v>
+      </c>
+      <c r="N22" t="n">
+        <v>990</v>
+      </c>
+      <c r="O22" t="n">
+        <v>990</v>
+      </c>
+      <c r="P22" t="n">
+        <v>874</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1125</v>
+      </c>
+      <c r="R22" t="n">
+        <v>960</v>
+      </c>
+      <c r="S22" t="n">
+        <v>933.8200000000001</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -4925,6 +4979,60 @@
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>42552</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1032</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1012</v>
+      </c>
+      <c r="D84" t="n">
+        <v>770</v>
+      </c>
+      <c r="E84" t="n">
+        <v>880</v>
+      </c>
+      <c r="F84" t="n">
+        <v>803</v>
+      </c>
+      <c r="G84" t="n">
+        <v>850</v>
+      </c>
+      <c r="H84" t="n">
+        <v>890</v>
+      </c>
+      <c r="I84" t="n">
+        <v>836</v>
+      </c>
+      <c r="J84" t="n">
+        <v>880</v>
+      </c>
+      <c r="K84" t="n">
+        <v>880</v>
+      </c>
+      <c r="L84" t="n">
+        <v>814</v>
+      </c>
+      <c r="M84" t="n">
+        <v>990</v>
+      </c>
+      <c r="N84" t="n">
+        <v>990</v>
+      </c>
+      <c r="O84" t="n">
+        <v>990</v>
+      </c>
+      <c r="P84" t="n">
+        <v>841</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1115</v>
+      </c>
+      <c r="R84" t="n">
+        <v>950</v>
+      </c>
+      <c r="S84" t="n">
+        <v>913.12</v>
       </c>
     </row>
     <row r="85">
